--- a/Data/processed/GST SALES OF POPLIN.xlsx
+++ b/Data/processed/GST SALES OF POPLIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IITM\BDM\Data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC01775-4257-468E-9FCF-BDEF118F10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618D243-5D9A-49DC-95B1-0608CE81978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,9 +647,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -681,20 +679,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -717,12 +702,248 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -733,6 +954,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A858F298-BC8F-4EBD-BF2A-464460746516}" name="Table1" displayName="Table1" ref="A1:I150" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:I150" xr:uid="{A858F298-BC8F-4EBD-BF2A-464460746516}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2C8C4030-30F7-4A46-9099-AF8C2F5C7C7C}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{12F61B64-14B0-4138-82ED-E9C9DD66914B}" name="Particulars" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2139C90D-9F2C-40DF-B952-C789D18D3BBF}" name="Vch Type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{82F8BDC0-DA80-4695-B745-63E4D4812119}" name="Vch No." dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A542385A-741C-40B9-A908-A6B0D14F57D6}" name="MTRS" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BC12EDAA-6599-4DC6-BF92-F244EA879F9D}" name="RATE" dataDxfId="4">
+      <calculatedColumnFormula>SUM(G2/E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8287922C-394D-46BB-B585-4CCC0E3E1E22}" name="Value" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C2D0DA8F-8029-4E30-BCED-CC62D8527286}" name="GST-5%" dataDxfId="2">
+      <calculatedColumnFormula>SUM(G2*5/100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{53527386-46DA-42E6-A615-90583C54DE26}" name="INCL OF GST" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>SUM(G2+H2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1304,7 @@
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,39 +1313,39 @@
     <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1131,7 +1376,7 @@
         <f>SUM(G2*5/100)</f>
         <v>1888.76</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <f>SUM(G2+H2)</f>
         <v>39663.96</v>
       </c>
@@ -1163,7 +1408,7 @@
         <f t="shared" ref="H3:H66" si="1">SUM(G3*5/100)</f>
         <v>5564.16</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I66" si="2">SUM(G3+H3)</f>
         <v>116847.36</v>
       </c>
@@ -1195,7 +1440,7 @@
         <f t="shared" si="1"/>
         <v>7440.5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f t="shared" si="2"/>
         <v>156250.5</v>
       </c>
@@ -1227,7 +1472,7 @@
         <f t="shared" si="1"/>
         <v>3741.87</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" si="2"/>
         <v>78579.26999999999</v>
       </c>
@@ -1259,7 +1504,7 @@
         <f t="shared" si="1"/>
         <v>3672.18</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="2"/>
         <v>77115.78</v>
       </c>
@@ -1291,7 +1536,7 @@
         <f t="shared" si="1"/>
         <v>3745.32</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="2"/>
         <v>78651.72</v>
       </c>
@@ -1323,7 +1568,7 @@
         <f t="shared" si="1"/>
         <v>1837.7</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="2"/>
         <v>38591.699999999997</v>
       </c>
@@ -1355,7 +1600,7 @@
         <f t="shared" si="1"/>
         <v>1857.02</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>38997.42</v>
       </c>
@@ -1387,7 +1632,7 @@
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>38157</v>
       </c>
@@ -1419,7 +1664,7 @@
         <f t="shared" si="1"/>
         <v>7409.91</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>155608.11000000002</v>
       </c>
@@ -1451,7 +1696,7 @@
         <f t="shared" si="1"/>
         <v>1831.95</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>38470.949999999997</v>
       </c>
@@ -1483,7 +1728,7 @@
         <f t="shared" si="1"/>
         <v>3662.98</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>76922.58</v>
       </c>
@@ -1515,7 +1760,7 @@
         <f t="shared" si="1"/>
         <v>4771.58</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="2"/>
         <v>100203.18000000001</v>
       </c>
@@ -1547,7 +1792,7 @@
         <f t="shared" si="1"/>
         <v>7429</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
         <v>156009</v>
       </c>
@@ -1579,7 +1824,7 @@
         <f t="shared" si="1"/>
         <v>5542.31</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>116388.51</v>
       </c>
@@ -1611,7 +1856,7 @@
         <f t="shared" si="1"/>
         <v>5278.46</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
         <v>110847.66</v>
       </c>
@@ -1643,7 +1888,7 @@
         <f t="shared" si="1"/>
         <v>5573.59</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
         <v>117045.39</v>
       </c>
@@ -1675,7 +1920,7 @@
         <f t="shared" si="1"/>
         <v>5533.34</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f t="shared" si="2"/>
         <v>116200.14</v>
       </c>
@@ -1707,7 +1952,7 @@
         <f t="shared" si="1"/>
         <v>3682.53</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <f t="shared" si="2"/>
         <v>77333.13</v>
       </c>
@@ -1739,7 +1984,7 @@
         <f t="shared" si="1"/>
         <v>5549.9</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f t="shared" si="2"/>
         <v>116547.9</v>
       </c>
@@ -1771,7 +2016,7 @@
         <f t="shared" si="1"/>
         <v>5497</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <f t="shared" si="2"/>
         <v>115437</v>
       </c>
@@ -1803,7 +2048,7 @@
         <f t="shared" si="1"/>
         <v>5519.31</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f t="shared" si="2"/>
         <v>115905.51</v>
       </c>
@@ -1835,7 +2080,7 @@
         <f t="shared" si="1"/>
         <v>7339.99</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f t="shared" si="2"/>
         <v>154139.78999999998</v>
       </c>
@@ -1867,7 +2112,7 @@
         <f t="shared" si="1"/>
         <v>3664.82</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <f t="shared" si="2"/>
         <v>76961.22</v>
       </c>
@@ -1899,7 +2144,7 @@
         <f t="shared" si="1"/>
         <v>3712.43</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f t="shared" si="2"/>
         <v>77961.03</v>
       </c>
@@ -1931,7 +2176,7 @@
         <f t="shared" si="1"/>
         <v>3677.7</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <f t="shared" si="2"/>
         <v>77231.7</v>
       </c>
@@ -1963,7 +2208,7 @@
         <f t="shared" si="1"/>
         <v>4597.47</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f t="shared" si="2"/>
         <v>96546.87</v>
       </c>
@@ -1995,7 +2240,7 @@
         <f t="shared" si="1"/>
         <v>3680.92</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <f t="shared" si="2"/>
         <v>77299.319999999992</v>
       </c>
@@ -2027,7 +2272,7 @@
         <f t="shared" si="1"/>
         <v>5518.16</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f t="shared" si="2"/>
         <v>115881.36</v>
       </c>
@@ -2059,7 +2304,7 @@
         <f t="shared" si="1"/>
         <v>7355.86</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f t="shared" si="2"/>
         <v>154473.06</v>
       </c>
@@ -2091,7 +2336,7 @@
         <f t="shared" si="1"/>
         <v>3733.13</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <f t="shared" si="2"/>
         <v>78395.73000000001</v>
       </c>
@@ -2123,7 +2368,7 @@
         <f t="shared" si="1"/>
         <v>7315.61</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f t="shared" si="2"/>
         <v>153627.81</v>
       </c>
@@ -2155,7 +2400,7 @@
         <f t="shared" si="1"/>
         <v>996.36</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <f t="shared" si="2"/>
         <v>20923.560000000001</v>
       </c>
@@ -2187,7 +2432,7 @@
         <f t="shared" si="1"/>
         <v>7452.92</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f t="shared" si="2"/>
         <v>156511.32</v>
       </c>
@@ -2219,7 +2464,7 @@
         <f t="shared" si="1"/>
         <v>5577.27</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f t="shared" si="2"/>
         <v>117122.67</v>
       </c>
@@ -2251,7 +2496,7 @@
         <f t="shared" si="1"/>
         <v>1839.08</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f t="shared" si="2"/>
         <v>38620.68</v>
       </c>
@@ -2283,7 +2528,7 @@
         <f t="shared" si="1"/>
         <v>7373.8</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <f t="shared" si="2"/>
         <v>154849.79999999999</v>
       </c>
@@ -2315,7 +2560,7 @@
         <f t="shared" si="1"/>
         <v>3668.27</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <f t="shared" si="2"/>
         <v>77033.67</v>
       </c>
@@ -2347,7 +2592,7 @@
         <f t="shared" si="1"/>
         <v>3704.15</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <f t="shared" si="2"/>
         <v>77787.149999999994</v>
       </c>
@@ -2379,7 +2624,7 @@
         <f t="shared" si="1"/>
         <v>1091.3499999999999</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <f t="shared" si="2"/>
         <v>22918.35</v>
       </c>
@@ -2411,7 +2656,7 @@
         <f t="shared" si="1"/>
         <v>7371.04</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <f t="shared" si="2"/>
         <v>154791.84</v>
       </c>
@@ -2443,7 +2688,7 @@
         <f t="shared" si="1"/>
         <v>5531.96</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <f t="shared" si="2"/>
         <v>116171.16</v>
       </c>
@@ -2475,7 +2720,7 @@
         <f t="shared" si="1"/>
         <v>973.36</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <f t="shared" si="2"/>
         <v>20440.560000000001</v>
       </c>
@@ -2507,7 +2752,7 @@
         <f t="shared" si="1"/>
         <v>5561.4</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <f t="shared" si="2"/>
         <v>116789.4</v>
       </c>
@@ -2539,7 +2784,7 @@
         <f t="shared" si="1"/>
         <v>5553.35</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <f t="shared" si="2"/>
         <v>116620.35</v>
       </c>
@@ -2571,7 +2816,7 @@
         <f t="shared" si="1"/>
         <v>7451.31</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <f t="shared" si="2"/>
         <v>156477.51</v>
       </c>
@@ -2603,7 +2848,7 @@
         <f t="shared" si="1"/>
         <v>3742.33</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <f t="shared" si="2"/>
         <v>78588.930000000008</v>
       </c>
@@ -2635,7 +2880,7 @@
         <f t="shared" si="1"/>
         <v>7466.26</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>156791.46000000002</v>
       </c>
@@ -2667,7 +2912,7 @@
         <f t="shared" si="1"/>
         <v>7813.56</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <f t="shared" si="2"/>
         <v>164084.76</v>
       </c>
@@ -2699,7 +2944,7 @@
         <f t="shared" si="1"/>
         <v>1886.23</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <f t="shared" si="2"/>
         <v>39610.83</v>
       </c>
@@ -2731,7 +2976,7 @@
         <f t="shared" si="1"/>
         <v>1852.42</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <f t="shared" si="2"/>
         <v>38900.82</v>
       </c>
@@ -2763,7 +3008,7 @@
         <f t="shared" si="1"/>
         <v>4072.38</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="8">
         <f t="shared" si="2"/>
         <v>85519.98000000001</v>
       </c>
@@ -2795,7 +3040,7 @@
         <f t="shared" si="1"/>
         <v>7372.42</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <f t="shared" si="2"/>
         <v>154820.82</v>
       </c>
@@ -2827,7 +3072,7 @@
         <f t="shared" si="1"/>
         <v>1888.99</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="8">
         <f t="shared" si="2"/>
         <v>39668.79</v>
       </c>
@@ -2859,7 +3104,7 @@
         <f t="shared" si="1"/>
         <v>5580.95</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="8">
         <f t="shared" si="2"/>
         <v>117199.95</v>
       </c>
@@ -2891,7 +3136,7 @@
         <f t="shared" si="1"/>
         <v>7532.5</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="8">
         <f t="shared" si="2"/>
         <v>158182.5</v>
       </c>
@@ -2923,7 +3168,7 @@
         <f t="shared" si="1"/>
         <v>7429</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="8">
         <f t="shared" si="2"/>
         <v>156009</v>
       </c>
@@ -2955,7 +3200,7 @@
         <f t="shared" si="1"/>
         <v>3744.86</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <f t="shared" si="2"/>
         <v>78642.06</v>
       </c>
@@ -2987,7 +3232,7 @@
         <f t="shared" si="1"/>
         <v>5606.25</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="8">
         <f t="shared" si="2"/>
         <v>117731.25</v>
       </c>
@@ -3019,7 +3264,7 @@
         <f t="shared" si="1"/>
         <v>5557.26</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="8">
         <f t="shared" si="2"/>
         <v>116702.45999999999</v>
       </c>
@@ -3051,7 +3296,7 @@
         <f t="shared" si="1"/>
         <v>7422.33</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <f t="shared" si="2"/>
         <v>155868.93</v>
       </c>
@@ -3083,7 +3328,7 @@
         <f t="shared" si="1"/>
         <v>7495.7</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="8">
         <f t="shared" si="2"/>
         <v>157409.70000000001</v>
       </c>
@@ -3115,7 +3360,7 @@
         <f t="shared" si="1"/>
         <v>7374.26</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <f t="shared" si="2"/>
         <v>154859.46000000002</v>
       </c>
@@ -3147,7 +3392,7 @@
         <f t="shared" si="1"/>
         <v>7443.72</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="8">
         <f t="shared" si="2"/>
         <v>156318.12</v>
       </c>
@@ -3179,7 +3424,7 @@
         <f t="shared" si="1"/>
         <v>5583.71</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <f t="shared" si="2"/>
         <v>117257.91</v>
       </c>
@@ -3211,7 +3456,7 @@
         <f t="shared" ref="H67:H130" si="4">SUM(G67*5/100)</f>
         <v>7589.3249999999998</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <f t="shared" ref="I67:I130" si="5">SUM(G67+H67)</f>
         <v>159375.82500000001</v>
       </c>
@@ -3243,7 +3488,7 @@
         <f t="shared" si="4"/>
         <v>7641.0249999999996</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <f t="shared" si="5"/>
         <v>160461.52499999999</v>
       </c>
@@ -3275,7 +3520,7 @@
         <f t="shared" si="4"/>
         <v>3839.9</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="8">
         <f t="shared" si="5"/>
         <v>80637.899999999994</v>
       </c>
@@ -3307,7 +3552,7 @@
         <f t="shared" si="4"/>
         <v>3799.95</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="8">
         <f t="shared" si="5"/>
         <v>79798.95</v>
       </c>
@@ -3339,7 +3584,7 @@
         <f t="shared" si="4"/>
         <v>5704.39</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <f t="shared" si="5"/>
         <v>119792.19</v>
       </c>
@@ -3371,7 +3616,7 @@
         <f t="shared" si="4"/>
         <v>5708.15</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="8">
         <f t="shared" si="5"/>
         <v>119871.15</v>
       </c>
@@ -3403,7 +3648,7 @@
         <f t="shared" si="4"/>
         <v>3835.67</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="8">
         <f t="shared" si="5"/>
         <v>80549.069999999992</v>
       </c>
@@ -3435,7 +3680,7 @@
         <f t="shared" si="4"/>
         <v>1910.3150000000001</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="8">
         <f t="shared" si="5"/>
         <v>40116.615000000005</v>
       </c>
@@ -3467,7 +3712,7 @@
         <f t="shared" si="4"/>
         <v>11372.59</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="8">
         <f t="shared" si="5"/>
         <v>238824.38999999998</v>
       </c>
@@ -3499,7 +3744,7 @@
         <f t="shared" si="4"/>
         <v>3810.9949999999999</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="8">
         <f t="shared" si="5"/>
         <v>80030.89499999999</v>
       </c>
@@ -3531,7 +3776,7 @@
         <f t="shared" si="4"/>
         <v>1928.175</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="8">
         <f t="shared" si="5"/>
         <v>40491.675000000003</v>
       </c>
@@ -3563,7 +3808,7 @@
         <f t="shared" si="4"/>
         <v>5767.6049999999996</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="8">
         <f t="shared" si="5"/>
         <v>121119.705</v>
       </c>
@@ -3595,7 +3840,7 @@
         <f t="shared" si="4"/>
         <v>7682.15</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="8">
         <f t="shared" si="5"/>
         <v>161325.15</v>
       </c>
@@ -3627,7 +3872,7 @@
         <f t="shared" si="4"/>
         <v>3821.1</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="8">
         <f t="shared" si="5"/>
         <v>80243.100000000006</v>
       </c>
@@ -3659,7 +3904,7 @@
         <f t="shared" si="4"/>
         <v>11573.75</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="8">
         <f t="shared" si="5"/>
         <v>243048.75</v>
       </c>
@@ -3691,7 +3936,7 @@
         <f t="shared" si="4"/>
         <v>5714.4949999999999</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="8">
         <f t="shared" si="5"/>
         <v>120004.39499999999</v>
       </c>
@@ -3723,7 +3968,7 @@
         <f t="shared" si="4"/>
         <v>3796.895</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="8">
         <f t="shared" si="5"/>
         <v>79734.794999999998</v>
       </c>
@@ -3755,7 +4000,7 @@
         <f t="shared" si="4"/>
         <v>2018.65</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="8">
         <f t="shared" si="5"/>
         <v>42391.65</v>
       </c>
@@ -3787,7 +4032,7 @@
         <f t="shared" si="4"/>
         <v>7604.3649999999998</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <f t="shared" si="5"/>
         <v>159691.66499999998</v>
       </c>
@@ -3819,7 +4064,7 @@
         <f t="shared" si="4"/>
         <v>3834.26</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="8">
         <f t="shared" si="5"/>
         <v>80519.459999999992</v>
       </c>
@@ -3851,7 +4096,7 @@
         <f t="shared" si="4"/>
         <v>3801.125</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="8">
         <f t="shared" si="5"/>
         <v>79823.625</v>
       </c>
@@ -3883,7 +4128,7 @@
         <f t="shared" si="4"/>
         <v>11482.334999999999</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="8">
         <f t="shared" si="5"/>
         <v>241129.035</v>
       </c>
@@ -3915,7 +4160,7 @@
         <f t="shared" si="4"/>
         <v>1860</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="8">
         <f t="shared" si="5"/>
         <v>39060</v>
       </c>
@@ -3947,7 +4192,7 @@
         <f t="shared" si="4"/>
         <v>615.23</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="8">
         <f t="shared" si="5"/>
         <v>12919.83</v>
       </c>
@@ -3979,7 +4224,7 @@
         <f t="shared" si="4"/>
         <v>3801.5949999999998</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="8">
         <f t="shared" si="5"/>
         <v>79833.494999999995</v>
       </c>
@@ -4011,7 +4256,7 @@
         <f t="shared" si="4"/>
         <v>1891.9849999999999</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="8">
         <f t="shared" si="5"/>
         <v>39731.684999999998</v>
       </c>
@@ -4043,7 +4288,7 @@
         <f t="shared" si="4"/>
         <v>7141.8850000000002</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="8">
         <f t="shared" si="5"/>
         <v>149979.58500000002</v>
       </c>
@@ -4075,7 +4320,7 @@
         <f t="shared" si="4"/>
         <v>662.46500000000003</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="8">
         <f t="shared" si="5"/>
         <v>13911.764999999999</v>
       </c>
@@ -4107,7 +4352,7 @@
         <f t="shared" si="4"/>
         <v>7649.9549999999999</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="8">
         <f t="shared" si="5"/>
         <v>160649.05499999999</v>
       </c>
@@ -4139,7 +4384,7 @@
         <f t="shared" si="4"/>
         <v>11377.525</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="8">
         <f t="shared" si="5"/>
         <v>238928.02499999999</v>
       </c>
@@ -4171,7 +4416,7 @@
         <f t="shared" si="4"/>
         <v>4245.51</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="8">
         <f t="shared" si="5"/>
         <v>89155.709999999992</v>
       </c>
@@ -4203,7 +4448,7 @@
         <f t="shared" si="4"/>
         <v>3805.12</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="8">
         <f t="shared" si="5"/>
         <v>79907.51999999999</v>
       </c>
@@ -4235,7 +4480,7 @@
         <f t="shared" si="4"/>
         <v>4213.3149999999996</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="8">
         <f t="shared" si="5"/>
         <v>88479.615000000005</v>
       </c>
@@ -4267,7 +4512,7 @@
         <f t="shared" si="4"/>
         <v>4789.0649999999996</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="8">
         <f t="shared" si="5"/>
         <v>100570.36500000001</v>
       </c>
@@ -4299,7 +4544,7 @@
         <f t="shared" si="4"/>
         <v>3850.0050000000001</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="8">
         <f t="shared" si="5"/>
         <v>80850.10500000001</v>
       </c>
@@ -4331,7 +4576,7 @@
         <f t="shared" si="4"/>
         <v>3814.7550000000001</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="8">
         <f t="shared" si="5"/>
         <v>80109.85500000001</v>
       </c>
@@ -4363,7 +4608,7 @@
         <f t="shared" si="4"/>
         <v>11436.98</v>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="8">
         <f t="shared" si="5"/>
         <v>240176.58000000002</v>
       </c>
@@ -4395,7 +4640,7 @@
         <f t="shared" si="4"/>
         <v>5730.9449999999997</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="8">
         <f t="shared" si="5"/>
         <v>120349.845</v>
       </c>
@@ -4427,7 +4672,7 @@
         <f t="shared" si="4"/>
         <v>5696.87</v>
       </c>
-      <c r="I105" s="9">
+      <c r="I105" s="8">
         <f t="shared" si="5"/>
         <v>119634.26999999999</v>
       </c>
@@ -4459,7 +4704,7 @@
         <f t="shared" si="4"/>
         <v>7668.2849999999999</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="8">
         <f t="shared" si="5"/>
         <v>161033.98500000002</v>
       </c>
@@ -4491,7 +4736,7 @@
         <f t="shared" si="4"/>
         <v>3814.2849999999999</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="8">
         <f t="shared" si="5"/>
         <v>80099.985000000001</v>
       </c>
@@ -4523,7 +4768,7 @@
         <f t="shared" si="4"/>
         <v>11321.83</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I108" s="8">
         <f t="shared" si="5"/>
         <v>237758.43</v>
       </c>
@@ -4555,7 +4800,7 @@
         <f t="shared" si="4"/>
         <v>1738.2950000000001</v>
       </c>
-      <c r="I109" s="9">
+      <c r="I109" s="8">
         <f t="shared" si="5"/>
         <v>36504.195</v>
       </c>
@@ -4587,7 +4832,7 @@
         <f t="shared" si="4"/>
         <v>7548.2</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I110" s="8">
         <f t="shared" si="5"/>
         <v>158512.20000000001</v>
       </c>
@@ -4619,7 +4864,7 @@
         <f t="shared" si="4"/>
         <v>3803.0050000000001</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I111" s="8">
         <f t="shared" si="5"/>
         <v>79863.10500000001</v>
       </c>
@@ -4651,7 +4896,7 @@
         <f t="shared" si="4"/>
         <v>389.63</v>
       </c>
-      <c r="I112" s="9">
+      <c r="I112" s="8">
         <f t="shared" si="5"/>
         <v>8182.2300000000005</v>
       </c>
@@ -4683,7 +4928,7 @@
         <f t="shared" si="4"/>
         <v>5822.83</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I113" s="8">
         <f t="shared" si="5"/>
         <v>122279.43000000001</v>
       </c>
@@ -4715,7 +4960,7 @@
         <f t="shared" si="4"/>
         <v>1950.03</v>
       </c>
-      <c r="I114" s="9">
+      <c r="I114" s="8">
         <f t="shared" si="5"/>
         <v>40950.629999999997</v>
       </c>
@@ -4747,7 +4992,7 @@
         <f t="shared" si="4"/>
         <v>1912.665</v>
       </c>
-      <c r="I115" s="9">
+      <c r="I115" s="8">
         <f t="shared" si="5"/>
         <v>40165.965000000004</v>
       </c>
@@ -4779,7 +5024,7 @@
         <f t="shared" si="4"/>
         <v>5724.3649999999998</v>
       </c>
-      <c r="I116" s="9">
+      <c r="I116" s="8">
         <f t="shared" si="5"/>
         <v>120211.66500000001</v>
       </c>
@@ -4811,7 +5056,7 @@
         <f t="shared" si="4"/>
         <v>11395.855</v>
       </c>
-      <c r="I117" s="9">
+      <c r="I117" s="8">
         <f t="shared" si="5"/>
         <v>239312.95500000002</v>
       </c>
@@ -4843,7 +5088,7 @@
         <f t="shared" si="4"/>
         <v>5811.3149999999996</v>
       </c>
-      <c r="I118" s="9">
+      <c r="I118" s="8">
         <f t="shared" si="5"/>
         <v>122037.61500000001</v>
       </c>
@@ -4875,7 +5120,7 @@
         <f t="shared" si="4"/>
         <v>7669.46</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I119" s="8">
         <f t="shared" si="5"/>
         <v>161058.66</v>
       </c>
@@ -4907,7 +5152,7 @@
         <f t="shared" si="4"/>
         <v>1906.32</v>
       </c>
-      <c r="I120" s="9">
+      <c r="I120" s="8">
         <f t="shared" si="5"/>
         <v>40032.720000000001</v>
       </c>
@@ -4939,7 +5184,7 @@
         <f t="shared" si="4"/>
         <v>12616.76</v>
       </c>
-      <c r="I121" s="9">
+      <c r="I121" s="8">
         <f t="shared" si="5"/>
         <v>264951.96000000002</v>
       </c>
@@ -4971,7 +5216,7 @@
         <f t="shared" si="4"/>
         <v>2166.3200000000002</v>
       </c>
-      <c r="I122" s="9">
+      <c r="I122" s="8">
         <f t="shared" si="5"/>
         <v>45492.72</v>
       </c>
@@ -5003,7 +5248,7 @@
         <f t="shared" si="4"/>
         <v>7854.34</v>
       </c>
-      <c r="I123" s="9">
+      <c r="I123" s="8">
         <f t="shared" si="5"/>
         <v>164941.13999999998</v>
       </c>
@@ -5035,7 +5280,7 @@
         <f t="shared" si="4"/>
         <v>2124.46</v>
       </c>
-      <c r="I124" s="9">
+      <c r="I124" s="8">
         <f t="shared" si="5"/>
         <v>44613.659999999996</v>
       </c>
@@ -5067,7 +5312,7 @@
         <f t="shared" si="4"/>
         <v>6339.32</v>
       </c>
-      <c r="I125" s="9">
+      <c r="I125" s="8">
         <f t="shared" si="5"/>
         <v>133125.72</v>
       </c>
@@ -5099,7 +5344,7 @@
         <f t="shared" si="4"/>
         <v>4411.9399999999996</v>
       </c>
-      <c r="I126" s="9">
+      <c r="I126" s="8">
         <f t="shared" si="5"/>
         <v>92650.74</v>
       </c>
@@ -5131,7 +5376,7 @@
         <f t="shared" si="4"/>
         <v>7068.17</v>
       </c>
-      <c r="I127" s="9">
+      <c r="I127" s="8">
         <f t="shared" si="5"/>
         <v>148431.57</v>
       </c>
@@ -5163,7 +5408,7 @@
         <f t="shared" si="4"/>
         <v>6408.48</v>
       </c>
-      <c r="I128" s="9">
+      <c r="I128" s="8">
         <f t="shared" si="5"/>
         <v>134578.08000000002</v>
       </c>
@@ -5195,7 +5440,7 @@
         <f t="shared" si="4"/>
         <v>800.28</v>
       </c>
-      <c r="I129" s="9">
+      <c r="I129" s="8">
         <f t="shared" si="5"/>
         <v>16805.88</v>
       </c>
@@ -5227,7 +5472,7 @@
         <f t="shared" si="4"/>
         <v>1871.74</v>
       </c>
-      <c r="I130" s="9">
+      <c r="I130" s="8">
         <f t="shared" si="5"/>
         <v>39306.54</v>
       </c>
@@ -5259,7 +5504,7 @@
         <f t="shared" ref="H131:H150" si="7">SUM(G131*5/100)</f>
         <v>537.41999999999996</v>
       </c>
-      <c r="I131" s="9">
+      <c r="I131" s="8">
         <f t="shared" ref="I131:I150" si="8">SUM(G131+H131)</f>
         <v>11285.82</v>
       </c>
@@ -5291,7 +5536,7 @@
         <f t="shared" si="7"/>
         <v>2131.2199999999998</v>
       </c>
-      <c r="I132" s="9">
+      <c r="I132" s="8">
         <f t="shared" si="8"/>
         <v>44755.62</v>
       </c>
@@ -5323,7 +5568,7 @@
         <f t="shared" si="7"/>
         <v>4255.42</v>
       </c>
-      <c r="I133" s="9">
+      <c r="I133" s="8">
         <f t="shared" si="8"/>
         <v>89363.819999999992</v>
       </c>
@@ -5355,7 +5600,7 @@
         <f t="shared" si="7"/>
         <v>4294.42</v>
       </c>
-      <c r="I134" s="9">
+      <c r="I134" s="8">
         <f t="shared" si="8"/>
         <v>90182.819999999992</v>
       </c>
@@ -5387,7 +5632,7 @@
         <f t="shared" si="7"/>
         <v>2160.34</v>
       </c>
-      <c r="I135" s="9">
+      <c r="I135" s="8">
         <f t="shared" si="8"/>
         <v>45367.14</v>
       </c>
@@ -5419,7 +5664,7 @@
         <f t="shared" si="7"/>
         <v>2142.66</v>
       </c>
-      <c r="I136" s="9">
+      <c r="I136" s="8">
         <f t="shared" si="8"/>
         <v>44995.86</v>
       </c>
@@ -5451,7 +5696,7 @@
         <f t="shared" si="7"/>
         <v>4306.25</v>
       </c>
-      <c r="I137" s="9">
+      <c r="I137" s="8">
         <f t="shared" si="8"/>
         <v>90431.25</v>
       </c>
@@ -5483,7 +5728,7 @@
         <f t="shared" si="7"/>
         <v>4336.99</v>
       </c>
-      <c r="I138" s="9">
+      <c r="I138" s="8">
         <f t="shared" si="8"/>
         <v>91076.790000000008</v>
       </c>
@@ -5515,7 +5760,7 @@
         <f t="shared" si="7"/>
         <v>662.5</v>
       </c>
-      <c r="I139" s="9">
+      <c r="I139" s="8">
         <f t="shared" si="8"/>
         <v>13912.5</v>
       </c>
@@ -5547,7 +5792,7 @@
         <f t="shared" si="7"/>
         <v>6697.9</v>
       </c>
-      <c r="I140" s="9">
+      <c r="I140" s="8">
         <f t="shared" si="8"/>
         <v>140655.9</v>
       </c>
@@ -5579,7 +5824,7 @@
         <f t="shared" si="7"/>
         <v>2380.125</v>
       </c>
-      <c r="I141" s="9">
+      <c r="I141" s="8">
         <f t="shared" si="8"/>
         <v>49982.625</v>
       </c>
@@ -5611,7 +5856,7 @@
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="I142" s="9">
+      <c r="I142" s="8">
         <f t="shared" si="8"/>
         <v>15015</v>
       </c>
@@ -5643,7 +5888,7 @@
         <f t="shared" si="7"/>
         <v>6802.125</v>
       </c>
-      <c r="I143" s="9">
+      <c r="I143" s="8">
         <f t="shared" si="8"/>
         <v>142844.625</v>
       </c>
@@ -5675,7 +5920,7 @@
         <f t="shared" si="7"/>
         <v>1313.28</v>
       </c>
-      <c r="I144" s="9">
+      <c r="I144" s="8">
         <f t="shared" si="8"/>
         <v>27578.879999999997</v>
       </c>
@@ -5707,7 +5952,7 @@
         <f t="shared" si="7"/>
         <v>6722.375</v>
       </c>
-      <c r="I145" s="9">
+      <c r="I145" s="8">
         <f t="shared" si="8"/>
         <v>141169.875</v>
       </c>
@@ -5739,7 +5984,7 @@
         <f t="shared" si="7"/>
         <v>4436.0249999999996</v>
       </c>
-      <c r="I146" s="9">
+      <c r="I146" s="8">
         <f t="shared" si="8"/>
         <v>93156.524999999994</v>
       </c>
@@ -5771,7 +6016,7 @@
         <f t="shared" si="7"/>
         <v>460.625</v>
       </c>
-      <c r="I147" s="9">
+      <c r="I147" s="8">
         <f t="shared" si="8"/>
         <v>9673.125</v>
       </c>
@@ -5803,7 +6048,7 @@
         <f t="shared" si="7"/>
         <v>1143.175</v>
       </c>
-      <c r="I148" s="9">
+      <c r="I148" s="8">
         <f t="shared" si="8"/>
         <v>24006.674999999999</v>
       </c>
@@ -5835,7 +6080,7 @@
         <f t="shared" si="7"/>
         <v>4456.9250000000002</v>
       </c>
-      <c r="I149" s="9">
+      <c r="I149" s="8">
         <f t="shared" si="8"/>
         <v>93595.425000000003</v>
       </c>
@@ -5867,36 +6112,39 @@
         <f t="shared" si="7"/>
         <v>6650.875</v>
       </c>
-      <c r="I150" s="9">
+      <c r="I150" s="8">
         <f t="shared" si="8"/>
         <v>139668.375</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="19">
         <v>305114.3</v>
       </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13">
+      <c r="F151" s="19"/>
+      <c r="G151" s="20">
         <v>14480349.199999999</v>
       </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="10"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>